--- a/1A_English/day1.xlsx
+++ b/1A_English/day1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\hoc_nodejs\English\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hoc_nodejs\1A_English\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D11616-9B04-4298-9CE5-45941D8DDB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t>Abide by</t>
   </si>
@@ -150,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,11 +463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,176 +641,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="D3:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="6" max="6" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
